--- a/biology/Botanique/Raymond_Billiard/Raymond_Billiard.xlsx
+++ b/biology/Botanique/Raymond_Billiard/Raymond_Billiard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raymond Billiard, né le 6 juin 1869 à Saint-Georges-de-Reneins et mort le 22 octobre 1956 à Charentay[1], est un historien français qui a étudié la vigne dans l'Antiquité, en tant qu'historien mais aussi en viticulteur, propriétaire dans le vignoble du Beaujolais.
-Il est élu le 5 juin 1923 à l'Académie des Sciences, belles-lettres et arts de Lyon[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raymond Billiard, né le 6 juin 1869 à Saint-Georges-de-Reneins et mort le 22 octobre 1956 à Charentay, est un historien français qui a étudié la vigne dans l'Antiquité, en tant qu'historien mais aussi en viticulteur, propriétaire dans le vignoble du Beaujolais.
+Il est élu le 5 juin 1923 à l'Académie des Sciences, belles-lettres et arts de Lyon.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La vigne dans l'Antiquité, Lyon, Lardanchet, 1913. Il est indiqué dans la préface : « C'est une œuvre consciencieuse, qui marquera dans la littérature viticole. C'est en outre, un beau livre, tant par la belle composition et le tirage -dont le mérite revient au maître imprimeur, M. G. Protat, un passionné d'art et de viticulture- que par le choix et l'édition des belles gravures qui le parent dignement. »
 - Prix Bordin (Antiquité classique) 1914 de l’Académie des inscriptions et belles-lettres
